--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_6_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_6_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Q0</t>
   </si>
@@ -37,91 +37,46 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>2010-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-07-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-10-01 00:00:00_diff</t>
@@ -506,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,25 +495,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.133235189640005</v>
+        <v>-0.1278195408837234</v>
       </c>
       <c r="C2">
-        <v>0.04756950900262713</v>
+        <v>-1.400444400388857</v>
       </c>
       <c r="D2">
-        <v>-1.302084976120867</v>
+        <v>0.08695924927729271</v>
       </c>
       <c r="E2">
-        <v>0.1457866939454695</v>
+        <v>-0.207196275323166</v>
       </c>
       <c r="F2">
-        <v>-0.1673847091934973</v>
+        <v>0.3329321255475683</v>
       </c>
       <c r="G2">
-        <v>0.3635249410150286</v>
+        <v>0.101692144383436</v>
       </c>
       <c r="H2">
-        <v>0.1278247883092069</v>
+        <v>0.2070326302046627</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -566,25 +521,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1278195408837234</v>
+        <v>0.5447147469754596</v>
       </c>
       <c r="C3">
-        <v>-1.400444400388857</v>
+        <v>0.001955153691105105</v>
       </c>
       <c r="D3">
-        <v>0.08695924927729271</v>
+        <v>0.4339574590591693</v>
       </c>
       <c r="E3">
-        <v>-0.207196275323166</v>
+        <v>0.1559537485280918</v>
       </c>
       <c r="F3">
-        <v>0.3329321255475683</v>
+        <v>0.2410754634991643</v>
       </c>
       <c r="G3">
-        <v>0.101692144383436</v>
+        <v>0.1347863954460349</v>
       </c>
       <c r="H3">
-        <v>0.2070326302046627</v>
+        <v>0.6338877181444649</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -592,25 +547,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-1.467487320300347</v>
+        <v>0.4178261858414339</v>
       </c>
       <c r="C4">
-        <v>0.06090087372439518</v>
+        <v>0.1320128381891874</v>
       </c>
       <c r="D4">
-        <v>-0.2135510451480548</v>
+        <v>0.2167499100690802</v>
       </c>
       <c r="E4">
-        <v>0.3359192081890023</v>
+        <v>0.1128318376506894</v>
       </c>
       <c r="F4">
-        <v>0.1091069527142989</v>
+        <v>0.6140076662505021</v>
       </c>
       <c r="G4">
-        <v>0.2165423006289127</v>
+        <v>0.8719046650920586</v>
       </c>
       <c r="H4">
-        <v>0.1199792917631423</v>
+        <v>-0.8522446856725341</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -618,25 +573,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5447147469754596</v>
+        <v>0.2987028809941715</v>
       </c>
       <c r="C5">
-        <v>0.001955153691105105</v>
+        <v>0.1220291778826379</v>
       </c>
       <c r="D5">
-        <v>0.4339574590591693</v>
+        <v>0.5943001037495309</v>
       </c>
       <c r="E5">
-        <v>0.1559537485280918</v>
+        <v>0.8426663495950357</v>
       </c>
       <c r="F5">
-        <v>0.2410754634991643</v>
+        <v>-0.8843890704881969</v>
       </c>
       <c r="G5">
-        <v>0.1347863954460349</v>
+        <v>-0.2316442249927503</v>
       </c>
       <c r="H5">
-        <v>0.6338877181444649</v>
+        <v>0.131645037661246</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -644,25 +599,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.3593802054704373</v>
+        <v>0.5654988129866392</v>
       </c>
       <c r="C6">
-        <v>0.2835004558152608</v>
+        <v>0.8405425659164625</v>
       </c>
       <c r="D6">
-        <v>0.0972551183106328</v>
+        <v>-0.8771061057057743</v>
       </c>
       <c r="E6">
-        <v>0.2190505071385603</v>
+        <v>-0.2212277120495061</v>
       </c>
       <c r="F6">
-        <v>0.1271961911768532</v>
+        <v>0.1430861830955678</v>
       </c>
       <c r="G6">
-        <v>0.6320303525385462</v>
+        <v>-0.7574275902997809</v>
       </c>
       <c r="H6">
-        <v>0.8909894686389331</v>
+        <v>0.3130368251941282</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -670,25 +625,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4178261858414339</v>
+        <v>-0.9989882668015876</v>
       </c>
       <c r="C7">
-        <v>0.1320128381891874</v>
+        <v>-0.31307288098283</v>
       </c>
       <c r="D7">
-        <v>0.2167499100690802</v>
+        <v>0.06321343652415951</v>
       </c>
       <c r="E7">
-        <v>0.1128318376506894</v>
+        <v>-0.8323569178484489</v>
       </c>
       <c r="F7">
-        <v>0.6140076662505021</v>
+        <v>0.240154187874971</v>
       </c>
       <c r="G7">
-        <v>0.8719046650920586</v>
+        <v>-0.3360291699081773</v>
       </c>
       <c r="H7">
-        <v>-0.8522446856725341</v>
+        <v>-0.54127534092662</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -696,25 +651,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.1637079222560516</v>
+        <v>0.1585282081815222</v>
       </c>
       <c r="C8">
-        <v>0.08884862135590131</v>
+        <v>-0.7540892131611641</v>
       </c>
       <c r="D8">
-        <v>0.04857947406020852</v>
+        <v>0.3107446784608449</v>
       </c>
       <c r="E8">
-        <v>0.5711623413422993</v>
+        <v>-0.2689678476130288</v>
       </c>
       <c r="F8">
-        <v>0.8359125317771533</v>
+        <v>-0.4758419697301518</v>
       </c>
       <c r="G8">
-        <v>-0.8860915702075646</v>
+        <v>0.5026967102291701</v>
       </c>
       <c r="H8">
-        <v>-0.2318304658836498</v>
+        <v>-0.2339395072814273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -722,25 +677,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2987028809941715</v>
+        <v>0.5708672202635848</v>
       </c>
       <c r="C9">
-        <v>0.1220291778826379</v>
+        <v>-0.1280619160306041</v>
       </c>
       <c r="D9">
-        <v>0.5943001037495309</v>
+        <v>-0.390397430094944</v>
       </c>
       <c r="E9">
-        <v>0.8426663495950357</v>
+        <v>0.5623484475265214</v>
       </c>
       <c r="F9">
-        <v>-0.8843890704881969</v>
+        <v>-0.1862827769703213</v>
       </c>
       <c r="G9">
-        <v>-0.2316442249927503</v>
+        <v>-0.2099693877891357</v>
       </c>
       <c r="H9">
-        <v>0.131645037661246</v>
+        <v>-0.1892248457786991</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05320957829225742</v>
+        <v>-0.5880056801767868</v>
       </c>
       <c r="C10">
-        <v>0.5623299815545961</v>
+        <v>0.4383886238637034</v>
       </c>
       <c r="D10">
-        <v>0.8241860510657051</v>
+        <v>-0.2776623976024654</v>
       </c>
       <c r="E10">
-        <v>-0.8985720778777526</v>
+        <v>-0.2869276062278247</v>
       </c>
       <c r="F10">
-        <v>-0.2445482619293701</v>
+        <v>-0.2597897169002801</v>
       </c>
       <c r="G10">
-        <v>0.119107153922694</v>
+        <v>-0.623363232311934</v>
       </c>
       <c r="H10">
-        <v>-0.7816379377416346</v>
+        <v>0.03314284490197711</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -774,25 +729,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5654988129866392</v>
+        <v>-0.2102603443096386</v>
       </c>
       <c r="C11">
-        <v>0.8405425659164625</v>
+        <v>-0.2120499133054097</v>
       </c>
       <c r="D11">
-        <v>-0.8771061057057743</v>
+        <v>-0.1816236201806256</v>
       </c>
       <c r="E11">
-        <v>-0.2212277120495061</v>
+        <v>-0.5437514435559043</v>
       </c>
       <c r="F11">
-        <v>0.1430861830955678</v>
+        <v>0.1133900045823698</v>
       </c>
       <c r="G11">
-        <v>-0.7574275902997809</v>
+        <v>-0.01690728797492691</v>
       </c>
       <c r="H11">
-        <v>0.3130368251941282</v>
+        <v>-0.1261762057981929</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -800,25 +755,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.425482519466241</v>
+        <v>-0.1939803210945991</v>
       </c>
       <c r="C12">
-        <v>-1.05118209184122</v>
+        <v>-0.5579424334817151</v>
       </c>
       <c r="D12">
-        <v>-0.3007149497678314</v>
+        <v>0.09844375035972808</v>
       </c>
       <c r="E12">
-        <v>0.09804488592130312</v>
+        <v>-0.03216374626862839</v>
       </c>
       <c r="F12">
-        <v>-0.7901984281018669</v>
+        <v>-0.1415591146121002</v>
       </c>
       <c r="G12">
-        <v>0.2846068683986879</v>
+        <v>-0.9712799915822796</v>
       </c>
       <c r="H12">
-        <v>-0.2908907207465812</v>
+        <v>-0.3907277485715169</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -826,25 +781,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.9989882668015876</v>
+        <v>0.2707464529491325</v>
       </c>
       <c r="C13">
-        <v>-0.31307288098283</v>
+        <v>0.06232838649038364</v>
       </c>
       <c r="D13">
-        <v>0.06321343652415951</v>
+        <v>-0.08323367572495516</v>
       </c>
       <c r="E13">
-        <v>-0.8323569178484489</v>
+        <v>-0.9297582624152663</v>
       </c>
       <c r="F13">
-        <v>0.240154187874971</v>
+        <v>-0.357013373929053</v>
       </c>
       <c r="G13">
-        <v>-0.3360291699081773</v>
+        <v>-0.4440146383915445</v>
       </c>
       <c r="H13">
-        <v>-0.54127534092662</v>
+        <v>-0.6636041934262084</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -852,25 +807,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02857462794951449</v>
+        <v>-0.1777422226074639</v>
       </c>
       <c r="C14">
-        <v>0.2168162853435909</v>
+        <v>-0.9662726614299468</v>
       </c>
       <c r="D14">
-        <v>-0.7366137250721284</v>
+        <v>-0.3668156737460341</v>
       </c>
       <c r="E14">
-        <v>0.3104199898921448</v>
+        <v>-0.441522535107442</v>
       </c>
       <c r="F14">
-        <v>-0.2769846740834951</v>
+        <v>-0.6554532109500923</v>
       </c>
       <c r="G14">
-        <v>-0.4871752303155096</v>
+        <v>0.9101489502747081</v>
       </c>
       <c r="H14">
-        <v>0.48993796845733</v>
+        <v>-0.4249983366195054</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -878,25 +833,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1585282081815222</v>
+        <v>-0.2244109514860759</v>
       </c>
       <c r="C15">
-        <v>-0.7540892131611641</v>
+        <v>-0.3609463815409155</v>
       </c>
       <c r="D15">
-        <v>0.3107446784608449</v>
+        <v>-0.6024388739472215</v>
       </c>
       <c r="E15">
-        <v>-0.2689678476130288</v>
+        <v>0.9508768341145255</v>
       </c>
       <c r="F15">
-        <v>-0.4758419697301518</v>
+        <v>-0.3897482266356107</v>
       </c>
       <c r="G15">
-        <v>0.5026967102291701</v>
+        <v>1.048807121260573</v>
       </c>
       <c r="H15">
-        <v>-0.2339395072814273</v>
+        <v>-0.05255046847064687</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -904,25 +859,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.7213261961611586</v>
+        <v>-0.4245064810212553</v>
       </c>
       <c r="C16">
-        <v>0.3245253954850104</v>
+        <v>1.037734429689356</v>
       </c>
       <c r="D16">
-        <v>-0.2643975008850202</v>
+        <v>-0.3468225008504117</v>
       </c>
       <c r="E16">
-        <v>-0.4757109569290048</v>
+        <v>1.070715795931569</v>
       </c>
       <c r="F16">
-        <v>0.5006872444794525</v>
+        <v>-0.04069625057600418</v>
       </c>
       <c r="G16">
-        <v>-0.2369809934954151</v>
+        <v>-0.2561834828541579</v>
       </c>
       <c r="H16">
-        <v>-0.2555869737130489</v>
+        <v>0.3398831621955681</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -930,25 +885,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5708672202635848</v>
+        <v>1.048302449822014</v>
       </c>
       <c r="C17">
-        <v>-0.1280619160306041</v>
+        <v>-0.3380477122786401</v>
       </c>
       <c r="D17">
-        <v>-0.390397430094944</v>
+        <v>1.078518199975304</v>
       </c>
       <c r="E17">
-        <v>0.5623484475265214</v>
+        <v>-0.03338618974149576</v>
       </c>
       <c r="F17">
-        <v>-0.1862827769703213</v>
+        <v>-0.2491226352005299</v>
       </c>
       <c r="G17">
-        <v>-0.2099693877891357</v>
+        <v>0.3468183386966098</v>
       </c>
       <c r="H17">
-        <v>-0.1892248457786991</v>
+        <v>0.01990898967064902</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -956,25 +911,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.4944296507288188</v>
+        <v>-0.4450221160943206</v>
       </c>
       <c r="C18">
-        <v>-0.5855451046848548</v>
+        <v>1.013258577037035</v>
       </c>
       <c r="D18">
-        <v>0.442644303644551</v>
+        <v>-0.07897678827447507</v>
       </c>
       <c r="E18">
-        <v>-0.2729842960525297</v>
+        <v>-0.2854533117167836</v>
       </c>
       <c r="F18">
-        <v>-0.2822127013064931</v>
+        <v>0.3148482439627</v>
       </c>
       <c r="G18">
-        <v>-0.255119957307045</v>
+        <v>-0.01000723788286506</v>
       </c>
       <c r="H18">
-        <v>-0.6187385421193851</v>
+        <v>0.7075488269872576</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -982,25 +937,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.5880056801767868</v>
+        <v>1.047131774781531</v>
       </c>
       <c r="C19">
-        <v>0.4383886238637034</v>
+        <v>-0.0762236280176779</v>
       </c>
       <c r="D19">
-        <v>-0.2776623976024654</v>
+        <v>-0.2970422425675381</v>
       </c>
       <c r="E19">
-        <v>-0.2869276062278247</v>
+        <v>0.2967268299057859</v>
       </c>
       <c r="F19">
-        <v>-0.2597897169002801</v>
+        <v>-0.03110735124562009</v>
       </c>
       <c r="G19">
-        <v>-0.623363232311934</v>
-      </c>
-      <c r="H19">
-        <v>0.03314284490197711</v>
+        <v>0.6850904903007842</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1008,25 +960,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7033448700167512</v>
+        <v>-0.333499057523928</v>
       </c>
       <c r="C20">
-        <v>-0.1425966463902736</v>
+        <v>-0.4283215140497347</v>
       </c>
       <c r="D20">
-        <v>-0.2070362788642313</v>
+        <v>0.2233711486320382</v>
       </c>
       <c r="E20">
-        <v>-0.2029939229165413</v>
+        <v>-0.07834862591279368</v>
       </c>
       <c r="F20">
-        <v>-0.5762215977498321</v>
-      </c>
-      <c r="G20">
-        <v>0.07624905048028457</v>
-      </c>
-      <c r="H20">
-        <v>-0.05601440108395112</v>
+        <v>0.6496436059220461</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1034,25 +980,16 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.2102603443096386</v>
+        <v>-0.4715856280184577</v>
       </c>
       <c r="C21">
-        <v>-0.2120499133054097</v>
+        <v>0.1950297526051633</v>
       </c>
       <c r="D21">
-        <v>-0.1816236201806256</v>
+        <v>-0.1030246514249161</v>
       </c>
       <c r="E21">
-        <v>-0.5437514435559043</v>
-      </c>
-      <c r="F21">
-        <v>0.1133900045823698</v>
-      </c>
-      <c r="G21">
-        <v>-0.01690728797492691</v>
-      </c>
-      <c r="H21">
-        <v>-0.1261762057981929</v>
+        <v>0.6253569729452143</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1060,25 +997,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.1540124822708245</v>
+        <v>0.3052209078313319</v>
       </c>
       <c r="C22">
-        <v>-0.1571716868449869</v>
+        <v>-0.04690201748056927</v>
       </c>
       <c r="D22">
-        <v>-0.5341058618064762</v>
-      </c>
-      <c r="E22">
-        <v>0.1165243146111747</v>
-      </c>
-      <c r="F22">
-        <v>-0.01663618546726847</v>
-      </c>
-      <c r="G22">
-        <v>-0.1271641937787155</v>
-      </c>
-      <c r="H22">
-        <v>-0.9573876980738341</v>
+        <v>0.6594387888791253</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1086,25 +1011,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.1939803210945991</v>
+        <v>-0.2037521027456684</v>
       </c>
       <c r="C23">
-        <v>-0.5579424334817151</v>
-      </c>
-      <c r="D23">
-        <v>0.09844375035972808</v>
-      </c>
-      <c r="E23">
-        <v>-0.03216374626862839</v>
-      </c>
-      <c r="F23">
-        <v>-0.1415591146121002</v>
-      </c>
-      <c r="G23">
-        <v>-0.9712799915822796</v>
-      </c>
-      <c r="H23">
-        <v>-0.3907277485715169</v>
+        <v>0.5642710581134855</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1112,351 +1022,6 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.5817199587567774</v>
-      </c>
-      <c r="C24">
-        <v>0.087038439307559</v>
-      </c>
-      <c r="D24">
-        <v>-0.03784903108913329</v>
-      </c>
-      <c r="E24">
-        <v>-0.1446000469634995</v>
-      </c>
-      <c r="F24">
-        <v>-0.9730984480341724</v>
-      </c>
-      <c r="G24">
-        <v>-0.3919810589841101</v>
-      </c>
-      <c r="H24">
-        <v>-0.4750935991739278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.2707464529491325</v>
-      </c>
-      <c r="C25">
-        <v>0.06232838649038364</v>
-      </c>
-      <c r="D25">
-        <v>-0.08323367572495516</v>
-      </c>
-      <c r="E25">
-        <v>-0.9297582624152663</v>
-      </c>
-      <c r="F25">
-        <v>-0.357013373929053</v>
-      </c>
-      <c r="G25">
-        <v>-0.4440146383915445</v>
-      </c>
-      <c r="H25">
-        <v>-0.6636041934262084</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.02721121447094599</v>
-      </c>
-      <c r="C26">
-        <v>-0.09948587738684567</v>
-      </c>
-      <c r="D26">
-        <v>-0.9372845695839452</v>
-      </c>
-      <c r="E26">
-        <v>-0.3605406087738189</v>
-      </c>
-      <c r="F26">
-        <v>-0.4457088557741394</v>
-      </c>
-      <c r="G26">
-        <v>-0.6644585754722984</v>
-      </c>
-      <c r="H26">
-        <v>0.8989234503550686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.1777422226074639</v>
-      </c>
-      <c r="C27">
-        <v>-0.9662726614299468</v>
-      </c>
-      <c r="D27">
-        <v>-0.3668156737460341</v>
-      </c>
-      <c r="E27">
-        <v>-0.441522535107442</v>
-      </c>
-      <c r="F27">
-        <v>-0.6554532109500923</v>
-      </c>
-      <c r="G27">
-        <v>0.9101489502747081</v>
-      </c>
-      <c r="H27">
-        <v>-0.4249983366195054</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.8998755275927439</v>
-      </c>
-      <c r="C28">
-        <v>-0.3330295446454745</v>
-      </c>
-      <c r="D28">
-        <v>-0.4226985345308695</v>
-      </c>
-      <c r="E28">
-        <v>-0.64348482736172</v>
-      </c>
-      <c r="F28">
-        <v>0.9189760041040188</v>
-      </c>
-      <c r="G28">
-        <v>-0.4176106790956933</v>
-      </c>
-      <c r="H28">
-        <v>1.022727663704157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.2244109514860759</v>
-      </c>
-      <c r="C29">
-        <v>-0.3609463815409155</v>
-      </c>
-      <c r="D29">
-        <v>-0.6024388739472215</v>
-      </c>
-      <c r="E29">
-        <v>0.9508768341145255</v>
-      </c>
-      <c r="F29">
-        <v>-0.3897482266356107</v>
-      </c>
-      <c r="G29">
-        <v>1.048807121260573</v>
-      </c>
-      <c r="H29">
-        <v>-0.05255046847064687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>-0.3026190724833925</v>
-      </c>
-      <c r="C30">
-        <v>-0.5763367183547179</v>
-      </c>
-      <c r="D30">
-        <v>0.9617740143522071</v>
-      </c>
-      <c r="E30">
-        <v>-0.3860101827778453</v>
-      </c>
-      <c r="F30">
-        <v>1.049178886788998</v>
-      </c>
-      <c r="G30">
-        <v>-0.05375956298493939</v>
-      </c>
-      <c r="H30">
-        <v>-0.2651807467376289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.4245064810212553</v>
-      </c>
-      <c r="C31">
-        <v>1.037734429689356</v>
-      </c>
-      <c r="D31">
-        <v>-0.3468225008504117</v>
-      </c>
-      <c r="E31">
-        <v>1.070715795931569</v>
-      </c>
-      <c r="F31">
-        <v>-0.04069625057600418</v>
-      </c>
-      <c r="G31">
-        <v>-0.2561834828541579</v>
-      </c>
-      <c r="H31">
-        <v>0.3398831621955681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>1.048302449822014</v>
-      </c>
-      <c r="C32">
-        <v>-0.3380477122786401</v>
-      </c>
-      <c r="D32">
-        <v>1.078518199975304</v>
-      </c>
-      <c r="E32">
-        <v>-0.03338618974149576</v>
-      </c>
-      <c r="F32">
-        <v>-0.2491226352005299</v>
-      </c>
-      <c r="G32">
-        <v>0.3468183386966098</v>
-      </c>
-      <c r="H32">
-        <v>0.01990898967064902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>-0.4450221160943206</v>
-      </c>
-      <c r="C33">
-        <v>1.013258577037035</v>
-      </c>
-      <c r="D33">
-        <v>-0.07897678827447507</v>
-      </c>
-      <c r="E33">
-        <v>-0.2854533117167836</v>
-      </c>
-      <c r="F33">
-        <v>0.3148482439627</v>
-      </c>
-      <c r="G33">
-        <v>-0.01000723788286506</v>
-      </c>
-      <c r="H33">
-        <v>0.7075488269872576</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>1.047131774781531</v>
-      </c>
-      <c r="C34">
-        <v>-0.0762236280176779</v>
-      </c>
-      <c r="D34">
-        <v>-0.2970422425675381</v>
-      </c>
-      <c r="E34">
-        <v>0.2967268299057859</v>
-      </c>
-      <c r="F34">
-        <v>-0.03110735124562009</v>
-      </c>
-      <c r="G34">
-        <v>0.6850904903007842</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>-0.333499057523928</v>
-      </c>
-      <c r="C35">
-        <v>-0.4283215140497347</v>
-      </c>
-      <c r="D35">
-        <v>0.2233711486320382</v>
-      </c>
-      <c r="E35">
-        <v>-0.07834862591279368</v>
-      </c>
-      <c r="F35">
-        <v>0.6496436059220461</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>-0.4715856280184577</v>
-      </c>
-      <c r="C36">
-        <v>0.1950297526051633</v>
-      </c>
-      <c r="D36">
-        <v>-0.1030246514249161</v>
-      </c>
-      <c r="E36">
-        <v>0.6253569729452143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.3052209078313319</v>
-      </c>
-      <c r="C37">
-        <v>-0.04690201748056927</v>
-      </c>
-      <c r="D37">
-        <v>0.6594387888791253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>-0.2037521027456684</v>
-      </c>
-      <c r="C38">
-        <v>0.5642710581134855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
         <v>0.5154074445011286</v>
       </c>
     </row>
